--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,13 +97,7 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
-    <t>System URI</t>
+    <t>ValueSet URL</t>
   </si>
   <si>
     <t>http://testSK.org/ValueSet/stroke-risk-factor-snomed-vs</t>
@@ -374,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,22 +388,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -417,7 +395,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,23 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>StrokeRiskFactorValueset</t>
+    <t>StrokeRiskFactorValueSet</t>
   </si>
   <si>
     <t>Title</t>
@@ -49,16 +49,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,13 +91,19 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>To aggregate core stroke risk factors and unknown/absent problem concepts for comprehensive capture and validation.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>This value set includes SNOMED CT® content and may include HL7 IPS value set content. SNOMED CT® is distributed by SNOMED International.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[null]</t>
+    <t>BooleanType[false]</t>
   </si>
   <si>
     <t>ValueSet URL</t>
@@ -299,66 +308,72 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -380,12 +395,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -407,12 +422,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
